--- a/Data/g20.11b.xlsx
+++ b/Data/g20.11b.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,6 +368,11 @@
           <t>Valor</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Colocação</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -378,6 +383,9 @@
       <c r="B2">
         <v>0.04500000000000004</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -388,6 +396,9 @@
       <c r="B3">
         <v>0.02200000000000002</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -398,6 +409,9 @@
       <c r="B4">
         <v>0.02100000000000002</v>
       </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -408,6 +422,9 @@
       <c r="B5">
         <v>0.01800000000000002</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -418,6 +435,9 @@
       <c r="B6">
         <v>0.006000000000000005</v>
       </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -428,6 +448,9 @@
       <c r="B7">
         <v>-0.003000000000000003</v>
       </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -437,6 +460,9 @@
       </c>
       <c r="B8">
         <v>-0.04399999999999993</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
       </c>
     </row>
     <row r="9">

--- a/Data/g20.11b.xlsx
+++ b/Data/g20.11b.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,10 +365,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Colocação</t>
         </is>
@@ -380,10 +385,15 @@
           <t>Paraíba</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>0.04500000000000004</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
@@ -393,10 +403,15 @@
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C3">
         <v>0.02200000000000002</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
     </row>
@@ -406,10 +421,15 @@
           <t>Rio Grande do Norte</t>
         </is>
       </c>
-      <c r="B4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C4">
         <v>0.02100000000000002</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
     </row>
@@ -419,10 +439,15 @@
           <t>Amapá</t>
         </is>
       </c>
-      <c r="B5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C5">
         <v>0.01800000000000002</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
     </row>
@@ -432,10 +457,15 @@
           <t>Mato Grosso do Sul</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C6">
         <v>0.006000000000000005</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5</v>
       </c>
     </row>
@@ -445,10 +475,15 @@
           <t>Maranhão</t>
         </is>
       </c>
-      <c r="B7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C7">
         <v>-0.003000000000000003</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6</v>
       </c>
     </row>
@@ -458,10 +493,15 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C8">
         <v>-0.04399999999999993</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>25</v>
       </c>
     </row>
@@ -471,7 +511,12 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C9">
         <v>-0.02100000000000002</v>
       </c>
     </row>
@@ -481,7 +526,12 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C10">
         <v>-0.01400000000000001</v>
       </c>
     </row>

--- a/Data/g20.11b.xlsx
+++ b/Data/g20.11b.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,8 +393,10 @@
       <c r="C2">
         <v>0.04500000000000004</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1º</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -411,8 +413,10 @@
       <c r="C3">
         <v>0.02200000000000002</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2º</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -429,8 +433,10 @@
       <c r="C4">
         <v>0.02100000000000002</v>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3º</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -447,8 +453,10 @@
       <c r="C5">
         <v>0.01800000000000002</v>
       </c>
-      <c r="D5">
-        <v>4</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4º</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -465,14 +473,16 @@
       <c r="C6">
         <v>0.006000000000000005</v>
       </c>
-      <c r="D6">
-        <v>5</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5º</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Tocantins</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -481,16 +491,18 @@
         </is>
       </c>
       <c r="C7">
-        <v>-0.003000000000000003</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
+        <v>-0.008000000000000007</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10º</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -499,16 +511,18 @@
         </is>
       </c>
       <c r="C8">
-        <v>-0.04399999999999993</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
+        <v>-0.009000000000000008</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11º</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Roraima</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -517,21 +531,341 @@
         </is>
       </c>
       <c r="C9">
-        <v>-0.02100000000000002</v>
+        <v>-0.009000000000000008</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12º</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Santa Catarina</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>-0.009000000000000008</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13º</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rio Grande do Sul</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>-0.009999999999999953</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14º</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15º</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Alagoas</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>-0.01200000000000001</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16º</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Piauí</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>-0.01700000000000002</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17º</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>-0.01900000000000002</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18º</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pará</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>-0.02300000000000002</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19º</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>-0.02400000000000002</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20º</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Minas Gerais</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>-0.02599999999999997</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21º</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rondônia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>-0.02799999999999997</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22º</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Acre</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>-0.03000000000000003</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23º</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>-0.04299999999999993</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24º</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>-0.04399999999999993</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>25º</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pernambuco</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>-0.05099999999999993</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26º</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>-0.07199999999999995</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27º</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>-0.02100000000000002</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C10">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2013</t>
+        </is>
+      </c>
+      <c r="C26">
         <v>-0.01400000000000001</v>
       </c>
     </row>

--- a/Data/g20.11b.xlsx
+++ b/Data/g20.11b.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,7 +482,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tocantins</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -491,18 +491,18 @@
         </is>
       </c>
       <c r="C7">
-        <v>-0.008000000000000007</v>
+        <v>-0.003000000000000003</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10º</t>
+          <t>6º</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -511,18 +511,18 @@
         </is>
       </c>
       <c r="C8">
-        <v>-0.009000000000000008</v>
+        <v>-0.04399999999999993</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11º</t>
+          <t>25º</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Roraima</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -531,18 +531,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>-0.009000000000000008</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12º</t>
-        </is>
+        <v>-0.02100000000000002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Santa Catarina</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -551,321 +546,6 @@
         </is>
       </c>
       <c r="C10">
-        <v>-0.009000000000000008</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>13º</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Rio Grande do Sul</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>-0.009999999999999953</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>14º</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>-0.01000000000000001</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>15º</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Alagoas</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>-0.01200000000000001</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16º</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Piauí</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>-0.01700000000000002</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>17º</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Ceará</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>-0.01900000000000002</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>18º</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Pará</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>-0.02300000000000002</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>19º</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Bahia</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>-0.02400000000000002</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>20º</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Minas Gerais</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>-0.02599999999999997</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>21º</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Rondônia</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>-0.02799999999999997</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>22º</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>-0.03000000000000003</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>23º</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Distrito Federal</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C21">
-        <v>-0.04299999999999993</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>24º</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>-0.04399999999999993</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>25º</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Pernambuco</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C23">
-        <v>-0.05099999999999993</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>26º</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Amazonas</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C24">
-        <v>-0.07199999999999995</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>27º</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C25">
-        <v>-0.02100000000000002</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C26">
         <v>-0.01400000000000001</v>
       </c>
     </row>

--- a/Data/g20.11b.xlsx
+++ b/Data/g20.11b.xlsx
@@ -1,21 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0130FB5C-B911-4A3E-B70C-628D45A3DDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Variável</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Colocação</t>
+  </si>
+  <si>
+    <t>1º</t>
+  </si>
+  <si>
+    <t>3º</t>
+  </si>
+  <si>
+    <t>4º</t>
+  </si>
+  <si>
+    <t>5º</t>
+  </si>
+  <si>
+    <t>6º</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+  <si>
+    <t>Nordeste</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Diferença 2023-2012</t>
+  </si>
+  <si>
+    <t>Acre</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Pernambuco</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Distrito Federal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +128,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +214,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +249,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,203 +425,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Região</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Variável</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Colocação</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Paraíba</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>0.04500000000000004</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1º</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
+        <v>-7.6999999999999957E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.02200000000000002</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2º</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Rio Grande do Norte</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
+        <v>-7.6999999999999957E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0.02100000000000002</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3º</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Amapá</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
+        <v>-7.2999999999999954E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.01800000000000002</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4º</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mato Grosso do Sul</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
+        <v>-5.799999999999994E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>0.006000000000000005</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5º</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Maranhão</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
+        <v>-5.4999999999999938E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>-0.003000000000000003</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6º</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
+        <v>-6.1999999999999944E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>-0.04399999999999993</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>25º</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
+        <v>-3.7000000000000033E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>-0.02100000000000002</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2013</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>-0.01400000000000001</v>
+        <v>-2.200000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g20.11b.xlsx
+++ b/Data/g20.11b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0130FB5C-B911-4A3E-B70C-628D45A3DDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C994BFB6-9C67-4BA3-B0FE-89A6483DB382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Região</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Distrito Federal</t>
+  </si>
+  <si>
+    <t>2º</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -468,10 +473,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>-7.6999999999999957E-2</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/Data/g20.11b.xlsx
+++ b/Data/g20.11b.xlsx
@@ -1,114 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C994BFB6-9C67-4BA3-B0FE-89A6483DB382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
-  <si>
-    <t>Região</t>
-  </si>
-  <si>
-    <t>Variável</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Colocação</t>
-  </si>
-  <si>
-    <t>1º</t>
-  </si>
-  <si>
-    <t>3º</t>
-  </si>
-  <si>
-    <t>4º</t>
-  </si>
-  <si>
-    <t>5º</t>
-  </si>
-  <si>
-    <t>6º</t>
-  </si>
-  <si>
-    <t>Sergipe</t>
-  </si>
-  <si>
-    <t>Nordeste</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>Diferença 2023-2012</t>
-  </si>
-  <si>
-    <t>Acre</t>
-  </si>
-  <si>
-    <t>Amazonas</t>
-  </si>
-  <si>
-    <t>Pernambuco</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Distrito Federal</t>
-  </si>
-  <si>
-    <t>2º</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,36 +45,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -217,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,136 +420,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>-7.6999999999999957E-2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>-7.5999999999999998E-2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>-7.2999999999999954E-2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>-5.799999999999994E-2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>-5.4999999999999938E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>-6.1999999999999944E-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>-3.7000000000000033E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>-2.200000000000002E-2</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Região</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Colocação</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Rio Grande do Norte</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Diferença 2024-2012</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01700000000000002</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1º</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Alagoas</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Diferença 2024-2012</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01500000000000001</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2º</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Piauí</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Diferença 2024-2012</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.002000000000000002</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3º</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Santa Catarina</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diferença 2024-2012</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.004000000000000004</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4º</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Espírito Santo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diferença 2024-2012</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.006000000000000005</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5º</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Paraná</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diferença 2024-2012</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.006000000000000005</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6º</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diferença 2024-2012</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.06899999999999995</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25º</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Diferença 2024-2012</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.03400000000000003</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Diferença 2024-2012</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.04400000000000004</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>